--- a/Subnets/2.xlsx
+++ b/Subnets/2.xlsx
@@ -8,50 +8,203 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa1849326a6bb03d/Archive/Documents/Python/Ngrok Minecraft Server Finder/Ngrok-Minecraft-Server-Finder/Subnets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{363C2A8B-EF89-43CF-A914-C0FBC3F0CC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_58857CB0430E0DF58A3897F84405B11A75F7D765" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96B80325-510C-43B3-82A2-CCCBB70ADC10}"/>
   <bookViews>
-    <workbookView xWindow="8415" yWindow="1500" windowWidth="18120" windowHeight="12840" xr2:uid="{A7DA351B-5054-46D3-A107-D2E4AF7A5C5E}"/>
+    <workbookView xWindow="10035" yWindow="615" windowWidth="18120" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Subnet</t>
-  </si>
-  <si>
-    <t>Port</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>Motd</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
-    <t>Max</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="59">
+  <si>
+    <t>Paper 1.16.5</t>
+  </si>
+  <si>
+    <t>A Minecraft Server</t>
+  </si>
+  <si>
+    <t>1.12.2</t>
+  </si>
+  <si>
+    <t>Paper 1.17.1</t>
+  </si>
+  <si>
+    <t>§l[SUSSY UPDATE] §l§c[IMPOSTOR] §l§b:O</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.5</t>
+  </si>
+  <si>
+    <t>1.16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Welcome to CullenMC. We are moving to the new version when it comes out so dont get attached. </t>
+  </si>
+  <si>
+    <t>Paper 1.12.2</t>
+  </si>
+  <si>
+    <t>Grief</t>
+  </si>
+  <si>
+    <t>The Metz' Minecraft Server</t>
+  </si>
+  <si>
+    <t>1.17.1</t>
+  </si>
+  <si>
+    <t>Enigmatica 2: Expert Server</t>
+  </si>
+  <si>
+    <t>Ryan Failed The Test For RVC</t>
+  </si>
+  <si>
+    <t>Spigot 1.8.8</t>
+  </si>
+  <si>
+    <t>§3§m--------§3§m--------§8[§3§lServer§8]§3§m--------§3§m--------
+§3§l------------By Gaminghard----------!</t>
+  </si>
+  <si>
+    <t>§8§l§o§nBARBIE DARKS 7U7§r
+§2§l§o§n-SE§1§l§o§n LO§3§l§o§n KE §4§l§o§nKIE§5§l§o§nRAS§6§l§o§n SE§9§l§o§nR-⭐</t>
+  </si>
+  <si>
+    <t>iet minecraft server lol</t>
+  </si>
+  <si>
+    <t>BotFilter 1.8.x-1.17.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 §bRe:§fWorld §7| §fНюхай бебру
+       §fwww.pornhub.com§f - §l§6СКИДКИ 50%, ЗАХОДИ</t>
+  </si>
+  <si>
+    <t>CraftBukkit 1.17.1</t>
+  </si>
+  <si>
+    <t>Paper 1.17</t>
+  </si>
+  <si>
+    <t>MajorSMP, better known as SimpSMP since 1999. uwu</t>
+  </si>
+  <si>
+    <t>Better Minecraft [FORGE]</t>
+  </si>
+  <si>
+    <t>Servidor VCP</t>
+  </si>
+  <si>
+    <t>Block Party</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>§9              Other §aPlanet §7[1.16.+]
+§f      Begin your first adventure to space!</t>
+  </si>
+  <si>
+    <t>nic4207 - Monk</t>
+  </si>
+  <si>
+    <t>Spigot 1.17</t>
+  </si>
+  <si>
+    <t>Colebolebole's Official Server!</t>
+  </si>
+  <si>
+    <t>21w42a</t>
+  </si>
+  <si>
+    <t>Version 2.0 Test Server</t>
+  </si>
+  <si>
+    <t>HAVE FUN</t>
+  </si>
+  <si>
+    <t>Spigot 1.17.1</t>
+  </si>
+  <si>
+    <t>BungeeCord 1.8.x-1.16.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    §b§lTero§f§lLand §8§lNet§7§lwork §c§lV2  §7§l[§e§l1.8 X 1.17§7§l] §8§l20%
+      §bteroland.mcalias.com §8(§f1.8 §7➟ §f1.16§8)</t>
+  </si>
+  <si>
+    <t>Settlers Smp</t>
+  </si>
+  <si>
+    <t>1.17</t>
+  </si>
+  <si>
+    <t>1.7.10</t>
+  </si>
+  <si>
+    <t>crazy craft bitch</t>
+  </si>
+  <si>
+    <t>Velocity 1.7.2-1.17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                §l§8[§l§b 101sec §l§fNetwork §l§8]
+         §l§6CAVES §5&amp; §l§9CLIFFS - §a1.17 UPDATED</t>
+  </si>
+  <si>
+    <t>A Vanilla Minecraft Server powered by Docker</t>
+  </si>
+  <si>
+    <t>SMP tranquille</t>
+  </si>
+  <si>
+    <t>Big Chungus</t>
+  </si>
+  <si>
+    <t>Ian's Minecraft Server</t>
+  </si>
+  <si>
+    <t>§f§f     §eâ¯ §a§lMINELATIN §f§lNETWORK §eâ¯ §8|| §8[§71.8§8-§71.15.2§8]
+§f            §8â¤ §fMejoras en el §a§lSurvival§2§lOP</t>
+  </si>
+  <si>
+    <t>Airplane 1.17.1</t>
+  </si>
+  <si>
+    <t>Pobreland</t>
+  </si>
+  <si>
+    <t>1.15.2</t>
+  </si>
+  <si>
+    <t>TosharuSMP | A Modded SMP For Everyone</t>
+  </si>
+  <si>
+    <t>Spigot 1.8.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             §4§klllll§2§lBedwars Hypixel-RiderBlackVNPK§4§klllll</t>
+  </si>
+  <si>
+    <t>§k§4|| §2GeoPol §6Origins §9Server §k§4||
+§f1.17.1 Vanilla Minecraft</t>
+  </si>
+  <si>
+    <t>bingecraft</t>
+  </si>
+  <si>
+    <t>SUPER SMASH BROTHERS BLOCKSY!!!!</t>
+  </si>
+  <si>
+    <t>Spigot 1.16.2</t>
+  </si>
+  <si>
+    <t>PLANETA ALAN</t>
   </si>
 </sst>
 </file>
@@ -67,21 +220,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,14 +249,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,37 +570,1424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C5A902-0843-415B-9F8F-1E3F6E62BDB0}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>15899</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>18654</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10312</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>12334</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>12911</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>13146</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>14708</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>14891</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>18067</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>18473</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>19275</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>18086</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>11188</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>11366</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F14">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>11918</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>13746</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>15270</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
         <v>5</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>15882</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>16373</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>17197</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>17364</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>17451</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>17553</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>17783</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>18791</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>12283</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>12424</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>12446</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>12749</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>14996</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>15510</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>15524</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>17250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>17677</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>19175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>19325</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>19959</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>16149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>17678</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>19798</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>15356</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>15600</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>18014</v>
+      </c>
+      <c r="C43" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>13172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>15577</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>13696</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>11667</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>10102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>17232</v>
+      </c>
+      <c r="C49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>13724</v>
+      </c>
+      <c r="C50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>14373</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>10429</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>12348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>13995</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>24</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>14071</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>25</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>14466</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2</v>
+      </c>
+      <c r="B57">
+        <v>16426</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58">
+        <v>18204</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59">
+        <v>19581</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+      <c r="E59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60">
+        <v>19912</v>
+      </c>
+      <c r="C60" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>2</v>
+      </c>
+      <c r="B61" s="1">
+        <v>11034</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1">
+        <v>12115</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>2</v>
+      </c>
+      <c r="B63" s="1">
+        <v>12542</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2</v>
+      </c>
+      <c r="B64">
+        <v>14864</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2</v>
+      </c>
+      <c r="B65">
+        <v>15525</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2</v>
+      </c>
+      <c r="B66">
+        <v>17426</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>18118</v>
+      </c>
+      <c r="C67" t="s">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>12635</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2</v>
+      </c>
+      <c r="B69">
+        <v>17960</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s">
+        <v>47</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2</v>
+      </c>
+      <c r="B70">
+        <v>16930</v>
+      </c>
+      <c r="C70" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" t="s">
+        <v>42</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F71">
+    <sortCondition ref="C1:C71"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
 </worksheet>
 </file>